--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Pdgfb-Pdgfra.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Pdgfb-Pdgfra.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Pdgfra</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>31.7722848080281</v>
+        <v>36.464945</v>
       </c>
       <c r="H2">
-        <v>31.7722848080281</v>
+        <v>109.394835</v>
       </c>
       <c r="I2">
-        <v>0.6682388770654251</v>
+        <v>0.6470580159734581</v>
       </c>
       <c r="J2">
-        <v>0.6682388770654251</v>
+        <v>0.647058015973458</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.228113945793582</v>
+        <v>0.3397146666666667</v>
       </c>
       <c r="N2">
-        <v>0.228113945793582</v>
+        <v>1.019144</v>
       </c>
       <c r="O2">
-        <v>0.001264875371546175</v>
+        <v>0.001876105469878586</v>
       </c>
       <c r="P2">
-        <v>0.001264875371546175</v>
+        <v>0.001876105469878587</v>
       </c>
       <c r="Q2">
-        <v>7.24770125443677</v>
+        <v>12.38767663569333</v>
       </c>
       <c r="R2">
-        <v>7.24770125443677</v>
+        <v>111.48908972124</v>
       </c>
       <c r="S2">
-        <v>0.0008452388979097283</v>
+        <v>0.001213949083096591</v>
       </c>
       <c r="T2">
-        <v>0.0008452388979097283</v>
+        <v>0.001213949083096591</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,557 +590,1797 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>31.7722848080281</v>
+        <v>36.464945</v>
       </c>
       <c r="H3">
-        <v>31.7722848080281</v>
+        <v>109.394835</v>
       </c>
       <c r="I3">
-        <v>0.6682388770654251</v>
+        <v>0.6470580159734581</v>
       </c>
       <c r="J3">
-        <v>0.6682388770654251</v>
+        <v>0.647058015973458</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>180.116883612928</v>
+        <v>180.357493</v>
       </c>
       <c r="N3">
-        <v>180.116883612928</v>
+        <v>541.0724789999999</v>
       </c>
       <c r="O3">
-        <v>0.9987351246284538</v>
+        <v>0.9960408317692755</v>
       </c>
       <c r="P3">
-        <v>0.9987351246284538</v>
+        <v>0.9960408317692757</v>
       </c>
       <c r="Q3">
-        <v>5722.724924884398</v>
+        <v>6576.726062582884</v>
       </c>
       <c r="R3">
-        <v>5722.724924884398</v>
+        <v>59190.53456324596</v>
       </c>
       <c r="S3">
-        <v>0.6673936381675153</v>
+        <v>0.6444962044331803</v>
       </c>
       <c r="T3">
-        <v>0.6673936381675153</v>
+        <v>0.6444962044331805</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.76965729360687</v>
+        <v>36.464945</v>
       </c>
       <c r="H4">
-        <v>3.76965729360687</v>
+        <v>109.394835</v>
       </c>
       <c r="I4">
-        <v>0.07928392849370547</v>
+        <v>0.6470580159734581</v>
       </c>
       <c r="J4">
-        <v>0.07928392849370547</v>
+        <v>0.647058015973458</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.228113945793582</v>
+        <v>0.07065566666666667</v>
       </c>
       <c r="N4">
-        <v>0.228113945793582</v>
+        <v>0.211967</v>
       </c>
       <c r="O4">
-        <v>0.001264875371546175</v>
+        <v>0.000390202413136666</v>
       </c>
       <c r="P4">
-        <v>0.001264875371546175</v>
+        <v>0.0003902024131366661</v>
       </c>
       <c r="Q4">
-        <v>0.8599113995342186</v>
+        <v>2.576454998938333</v>
       </c>
       <c r="R4">
-        <v>0.8599113995342186</v>
+        <v>23.188094990445</v>
       </c>
       <c r="S4">
-        <v>0.0001002842885111161</v>
+        <v>0.0002524835992722668</v>
       </c>
       <c r="T4">
-        <v>0.0001002842885111161</v>
+        <v>0.0002524835992722668</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.76965729360687</v>
+        <v>36.464945</v>
       </c>
       <c r="H5">
-        <v>3.76965729360687</v>
+        <v>109.394835</v>
       </c>
       <c r="I5">
-        <v>0.07928392849370547</v>
+        <v>0.6470580159734581</v>
       </c>
       <c r="J5">
-        <v>0.07928392849370547</v>
+        <v>0.647058015973458</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>180.116883612928</v>
+        <v>0.06577766666666666</v>
       </c>
       <c r="N5">
-        <v>180.116883612928</v>
+        <v>0.197333</v>
       </c>
       <c r="O5">
-        <v>0.9987351246284538</v>
+        <v>0.000363263209799156</v>
       </c>
       <c r="P5">
-        <v>0.9987351246284538</v>
+        <v>0.0003632632097991561</v>
       </c>
       <c r="Q5">
-        <v>678.9789240132138</v>
+        <v>2.398578997228333</v>
       </c>
       <c r="R5">
-        <v>678.9789240132138</v>
+        <v>21.587210975055</v>
       </c>
       <c r="S5">
-        <v>0.07918364420519436</v>
+        <v>0.000235052371808792</v>
       </c>
       <c r="T5">
-        <v>0.07918364420519436</v>
+        <v>0.000235052371808792</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>25</v>
       </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>9.644664834219579</v>
+        <v>36.464945</v>
       </c>
       <c r="H6">
-        <v>9.644664834219579</v>
+        <v>109.394835</v>
       </c>
       <c r="I6">
-        <v>0.2028478605625115</v>
+        <v>0.6470580159734581</v>
       </c>
       <c r="J6">
-        <v>0.2028478605625115</v>
+        <v>0.647058015973458</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.228113945793582</v>
+        <v>0.240756</v>
       </c>
       <c r="N6">
-        <v>0.228113945793582</v>
+        <v>0.722268</v>
       </c>
       <c r="O6">
-        <v>0.001264875371546175</v>
+        <v>0.001329597137910116</v>
       </c>
       <c r="P6">
-        <v>0.001264875371546175</v>
+        <v>0.001329597137910116</v>
       </c>
       <c r="Q6">
-        <v>2.200082551190432</v>
+        <v>8.77915429842</v>
       </c>
       <c r="R6">
-        <v>2.200082551190432</v>
+        <v>79.01238868578</v>
       </c>
       <c r="S6">
-        <v>0.0002565772629963534</v>
+        <v>0.0008603264861001079</v>
       </c>
       <c r="T6">
-        <v>0.0002565772629963534</v>
+        <v>0.0008603264861001079</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>9.644664834219579</v>
+        <v>0.06058233333333334</v>
       </c>
       <c r="H7">
-        <v>9.644664834219579</v>
+        <v>0.181747</v>
       </c>
       <c r="I7">
-        <v>0.2028478605625115</v>
+        <v>0.001075012848907612</v>
       </c>
       <c r="J7">
-        <v>0.2028478605625115</v>
+        <v>0.001075012848907611</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>180.116883612928</v>
+        <v>0.3397146666666667</v>
       </c>
       <c r="N7">
-        <v>180.116883612928</v>
+        <v>1.019144</v>
       </c>
       <c r="O7">
-        <v>0.9987351246284538</v>
+        <v>0.001876105469878586</v>
       </c>
       <c r="P7">
-        <v>0.9987351246284538</v>
+        <v>0.001876105469878587</v>
       </c>
       <c r="Q7">
-        <v>1737.166973430828</v>
+        <v>0.02058070717422222</v>
       </c>
       <c r="R7">
-        <v>1737.166973430828</v>
+        <v>0.185226364568</v>
       </c>
       <c r="S7">
-        <v>0.2025912832995151</v>
+        <v>2.016837486025333E-06</v>
       </c>
       <c r="T7">
-        <v>0.2025912832995151</v>
+        <v>2.016837486025333E-06</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.463279032513029</v>
+        <v>0.06058233333333334</v>
       </c>
       <c r="H8">
-        <v>0.463279032513029</v>
+        <v>0.181747</v>
       </c>
       <c r="I8">
-        <v>0.009743745604856194</v>
+        <v>0.001075012848907612</v>
       </c>
       <c r="J8">
-        <v>0.009743745604856194</v>
+        <v>0.001075012848907611</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.228113945793582</v>
+        <v>180.357493</v>
       </c>
       <c r="N8">
-        <v>0.228113945793582</v>
+        <v>541.0724789999999</v>
       </c>
       <c r="O8">
-        <v>0.001264875371546175</v>
+        <v>0.9960408317692755</v>
       </c>
       <c r="P8">
-        <v>0.001264875371546175</v>
+        <v>0.9960408317692757</v>
       </c>
       <c r="Q8">
-        <v>0.1056804081099802</v>
+        <v>10.92647776009033</v>
       </c>
       <c r="R8">
-        <v>0.1056804081099802</v>
+        <v>98.33829984081299</v>
       </c>
       <c r="S8">
-        <v>1.232462384219389E-05</v>
+        <v>0.001070756692188596</v>
       </c>
       <c r="T8">
-        <v>1.232462384219389E-05</v>
+        <v>0.001070756692188596</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.463279032513029</v>
+        <v>0.06058233333333334</v>
       </c>
       <c r="H9">
-        <v>0.463279032513029</v>
+        <v>0.181747</v>
       </c>
       <c r="I9">
-        <v>0.009743745604856194</v>
+        <v>0.001075012848907612</v>
       </c>
       <c r="J9">
-        <v>0.009743745604856194</v>
+        <v>0.001075012848907611</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>180.116883612928</v>
+        <v>0.07065566666666667</v>
       </c>
       <c r="N9">
-        <v>180.116883612928</v>
+        <v>0.211967</v>
       </c>
       <c r="O9">
-        <v>0.9987351246284538</v>
+        <v>0.000390202413136666</v>
       </c>
       <c r="P9">
-        <v>0.9987351246284538</v>
+        <v>0.0003902024131366661</v>
       </c>
       <c r="Q9">
-        <v>83.44437557945913</v>
+        <v>0.00428048514988889</v>
       </c>
       <c r="R9">
-        <v>83.44437557945913</v>
+        <v>0.03852436634900001</v>
       </c>
       <c r="S9">
-        <v>0.009731420981014</v>
+        <v>4.194726077966722E-07</v>
       </c>
       <c r="T9">
-        <v>0.009731420981014</v>
+        <v>4.194726077966722E-07</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>24</v>
       </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>1.89641206738315</v>
+        <v>0.06058233333333334</v>
       </c>
       <c r="H10">
-        <v>1.89641206738315</v>
+        <v>0.181747</v>
       </c>
       <c r="I10">
-        <v>0.03988558827350156</v>
+        <v>0.001075012848907612</v>
       </c>
       <c r="J10">
-        <v>0.03988558827350156</v>
+        <v>0.001075012848907611</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.228113945793582</v>
+        <v>0.06577766666666666</v>
       </c>
       <c r="N10">
-        <v>0.228113945793582</v>
+        <v>0.197333</v>
       </c>
       <c r="O10">
-        <v>0.001264875371546175</v>
+        <v>0.000363263209799156</v>
       </c>
       <c r="P10">
-        <v>0.001264875371546175</v>
+        <v>0.0003632632097991561</v>
       </c>
       <c r="Q10">
-        <v>0.4325980395413346</v>
+        <v>0.003984964527888889</v>
       </c>
       <c r="R10">
-        <v>0.4325980395413346</v>
+        <v>0.03586468075100001</v>
       </c>
       <c r="S10">
-        <v>5.045029828678305E-05</v>
+        <v>3.905126180695142E-07</v>
       </c>
       <c r="T10">
-        <v>5.045029828678305E-05</v>
+        <v>3.905126180695142E-07</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.06058233333333334</v>
+      </c>
+      <c r="H11">
+        <v>0.181747</v>
+      </c>
+      <c r="I11">
+        <v>0.001075012848907612</v>
+      </c>
+      <c r="J11">
+        <v>0.001075012848907611</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.240756</v>
+      </c>
+      <c r="N11">
+        <v>0.722268</v>
+      </c>
+      <c r="O11">
+        <v>0.001329597137910116</v>
+      </c>
+      <c r="P11">
+        <v>0.001329597137910116</v>
+      </c>
+      <c r="Q11">
+        <v>0.014585560244</v>
+      </c>
+      <c r="R11">
+        <v>0.131270042196</v>
+      </c>
+      <c r="S11">
+        <v>1.42933400712416E-06</v>
+      </c>
+      <c r="T11">
+        <v>1.42933400712416E-06</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>6.725386</v>
+      </c>
+      <c r="H12">
+        <v>20.176158</v>
+      </c>
+      <c r="I12">
+        <v>0.1193396814890485</v>
+      </c>
+      <c r="J12">
+        <v>0.1193396814890485</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.3397146666666667</v>
+      </c>
+      <c r="N12">
+        <v>1.019144</v>
+      </c>
+      <c r="O12">
+        <v>0.001876105469878586</v>
+      </c>
+      <c r="P12">
+        <v>0.001876105469878587</v>
+      </c>
+      <c r="Q12">
+        <v>2.284712263194667</v>
+      </c>
+      <c r="R12">
+        <v>20.562410368752</v>
+      </c>
+      <c r="S12">
+        <v>0.0002238938292151722</v>
+      </c>
+      <c r="T12">
+        <v>0.0002238938292151722</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>6.725386</v>
+      </c>
+      <c r="H13">
+        <v>20.176158</v>
+      </c>
+      <c r="I13">
+        <v>0.1193396814890485</v>
+      </c>
+      <c r="J13">
+        <v>0.1193396814890485</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>180.357493</v>
+      </c>
+      <c r="N13">
+        <v>541.0724789999999</v>
+      </c>
+      <c r="O13">
+        <v>0.9960408317692755</v>
+      </c>
+      <c r="P13">
+        <v>0.9960408317692757</v>
+      </c>
+      <c r="Q13">
+        <v>1212.973758417298</v>
+      </c>
+      <c r="R13">
+        <v>10916.76382575568</v>
+      </c>
+      <c r="S13">
+        <v>0.1188671956134323</v>
+      </c>
+      <c r="T13">
+        <v>0.1188671956134323</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>6.725386</v>
+      </c>
+      <c r="H14">
+        <v>20.176158</v>
+      </c>
+      <c r="I14">
+        <v>0.1193396814890485</v>
+      </c>
+      <c r="J14">
+        <v>0.1193396814890485</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.07065566666666667</v>
+      </c>
+      <c r="N14">
+        <v>0.211967</v>
+      </c>
+      <c r="O14">
+        <v>0.000390202413136666</v>
+      </c>
+      <c r="P14">
+        <v>0.0003902024131366661</v>
+      </c>
+      <c r="Q14">
+        <v>0.4751866314206667</v>
+      </c>
+      <c r="R14">
+        <v>4.276679682786001</v>
+      </c>
+      <c r="S14">
+        <v>4.656663169998784E-05</v>
+      </c>
+      <c r="T14">
+        <v>4.656663169998785E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
         <v>24</v>
       </c>
-      <c r="B11" t="s">
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>6.725386</v>
+      </c>
+      <c r="H15">
+        <v>20.176158</v>
+      </c>
+      <c r="I15">
+        <v>0.1193396814890485</v>
+      </c>
+      <c r="J15">
+        <v>0.1193396814890485</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.06577766666666666</v>
+      </c>
+      <c r="N15">
+        <v>0.197333</v>
+      </c>
+      <c r="O15">
+        <v>0.000363263209799156</v>
+      </c>
+      <c r="P15">
+        <v>0.0003632632097991561</v>
+      </c>
+      <c r="Q15">
+        <v>0.4423801985126667</v>
+      </c>
+      <c r="R15">
+        <v>3.981421786614</v>
+      </c>
+      <c r="S15">
+        <v>4.335171575412068E-05</v>
+      </c>
+      <c r="T15">
+        <v>4.335171575412069E-05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
         <v>25</v>
       </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>1.89641206738315</v>
-      </c>
-      <c r="H11">
-        <v>1.89641206738315</v>
-      </c>
-      <c r="I11">
-        <v>0.03988558827350156</v>
-      </c>
-      <c r="J11">
-        <v>0.03988558827350156</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>180.116883612928</v>
-      </c>
-      <c r="N11">
-        <v>180.116883612928</v>
-      </c>
-      <c r="O11">
-        <v>0.9987351246284538</v>
-      </c>
-      <c r="P11">
-        <v>0.9987351246284538</v>
-      </c>
-      <c r="Q11">
-        <v>341.575831623003</v>
-      </c>
-      <c r="R11">
-        <v>341.575831623003</v>
-      </c>
-      <c r="S11">
-        <v>0.03983513797521478</v>
-      </c>
-      <c r="T11">
-        <v>0.03983513797521478</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>6.725386</v>
+      </c>
+      <c r="H16">
+        <v>20.176158</v>
+      </c>
+      <c r="I16">
+        <v>0.1193396814890485</v>
+      </c>
+      <c r="J16">
+        <v>0.1193396814890485</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.240756</v>
+      </c>
+      <c r="N16">
+        <v>0.722268</v>
+      </c>
+      <c r="O16">
+        <v>0.001329597137910116</v>
+      </c>
+      <c r="P16">
+        <v>0.001329597137910116</v>
+      </c>
+      <c r="Q16">
+        <v>1.619177031816</v>
+      </c>
+      <c r="R16">
+        <v>14.572593286344</v>
+      </c>
+      <c r="S16">
+        <v>0.0001586736989469437</v>
+      </c>
+      <c r="T16">
+        <v>0.0001586736989469437</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>10.51787666666667</v>
+      </c>
+      <c r="H17">
+        <v>31.55363</v>
+      </c>
+      <c r="I17">
+        <v>0.1866361352851859</v>
+      </c>
+      <c r="J17">
+        <v>0.1866361352851859</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.3397146666666667</v>
+      </c>
+      <c r="N17">
+        <v>1.019144</v>
+      </c>
+      <c r="O17">
+        <v>0.001876105469878586</v>
+      </c>
+      <c r="P17">
+        <v>0.001876105469878587</v>
+      </c>
+      <c r="Q17">
+        <v>3.573076965857778</v>
+      </c>
+      <c r="R17">
+        <v>32.15769269272</v>
+      </c>
+      <c r="S17">
+        <v>0.000350149074285537</v>
+      </c>
+      <c r="T17">
+        <v>0.0003501490742855371</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>10.51787666666667</v>
+      </c>
+      <c r="H18">
+        <v>31.55363</v>
+      </c>
+      <c r="I18">
+        <v>0.1866361352851859</v>
+      </c>
+      <c r="J18">
+        <v>0.1866361352851859</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>180.357493</v>
+      </c>
+      <c r="N18">
+        <v>541.0724789999999</v>
+      </c>
+      <c r="O18">
+        <v>0.9960408317692755</v>
+      </c>
+      <c r="P18">
+        <v>0.9960408317692757</v>
+      </c>
+      <c r="Q18">
+        <v>1896.977867283196</v>
+      </c>
+      <c r="R18">
+        <v>17072.80080554877</v>
+      </c>
+      <c r="S18">
+        <v>0.1858972114276596</v>
+      </c>
+      <c r="T18">
+        <v>0.1858972114276596</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>10.51787666666667</v>
+      </c>
+      <c r="H19">
+        <v>31.55363</v>
+      </c>
+      <c r="I19">
+        <v>0.1866361352851859</v>
+      </c>
+      <c r="J19">
+        <v>0.1866361352851859</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19">
+        <v>0.07065566666666667</v>
+      </c>
+      <c r="N19">
+        <v>0.211967</v>
+      </c>
+      <c r="O19">
+        <v>0.000390202413136666</v>
+      </c>
+      <c r="P19">
+        <v>0.0003902024131366661</v>
+      </c>
+      <c r="Q19">
+        <v>0.7431475878011111</v>
+      </c>
+      <c r="R19">
+        <v>6.68832829021</v>
+      </c>
+      <c r="S19">
+        <v>7.282587036678079E-05</v>
+      </c>
+      <c r="T19">
+        <v>7.28258703667808E-05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>10.51787666666667</v>
+      </c>
+      <c r="H20">
+        <v>31.55363</v>
+      </c>
+      <c r="I20">
+        <v>0.1866361352851859</v>
+      </c>
+      <c r="J20">
+        <v>0.1866361352851859</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>0.06577766666666666</v>
+      </c>
+      <c r="N20">
+        <v>0.197333</v>
+      </c>
+      <c r="O20">
+        <v>0.000363263209799156</v>
+      </c>
+      <c r="P20">
+        <v>0.0003632632097991561</v>
+      </c>
+      <c r="Q20">
+        <v>0.6918413854211111</v>
+      </c>
+      <c r="R20">
+        <v>6.22657246879</v>
+      </c>
+      <c r="S20">
+        <v>6.779804156820614E-05</v>
+      </c>
+      <c r="T20">
+        <v>6.779804156820616E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>10.51787666666667</v>
+      </c>
+      <c r="H21">
+        <v>31.55363</v>
+      </c>
+      <c r="I21">
+        <v>0.1866361352851859</v>
+      </c>
+      <c r="J21">
+        <v>0.1866361352851859</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M21">
+        <v>0.240756</v>
+      </c>
+      <c r="N21">
+        <v>0.722268</v>
+      </c>
+      <c r="O21">
+        <v>0.001329597137910116</v>
+      </c>
+      <c r="P21">
+        <v>0.001329597137910116</v>
+      </c>
+      <c r="Q21">
+        <v>2.53224191476</v>
+      </c>
+      <c r="R21">
+        <v>22.79017723284</v>
+      </c>
+      <c r="S21">
+        <v>0.0002481508713057882</v>
+      </c>
+      <c r="T21">
+        <v>0.0002481508713057883</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.4695343333333333</v>
+      </c>
+      <c r="H22">
+        <v>1.408603</v>
+      </c>
+      <c r="I22">
+        <v>0.00833172665303861</v>
+      </c>
+      <c r="J22">
+        <v>0.00833172665303861</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.3397146666666667</v>
+      </c>
+      <c r="N22">
+        <v>1.019144</v>
+      </c>
+      <c r="O22">
+        <v>0.001876105469878586</v>
+      </c>
+      <c r="P22">
+        <v>0.001876105469878587</v>
+      </c>
+      <c r="Q22">
+        <v>0.1595076995368889</v>
+      </c>
+      <c r="R22">
+        <v>1.435569295832</v>
+      </c>
+      <c r="S22">
+        <v>1.563119794729894E-05</v>
+      </c>
+      <c r="T22">
+        <v>1.563119794729895E-05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.4695343333333333</v>
+      </c>
+      <c r="H23">
+        <v>1.408603</v>
+      </c>
+      <c r="I23">
+        <v>0.00833172665303861</v>
+      </c>
+      <c r="J23">
+        <v>0.00833172665303861</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>180.357493</v>
+      </c>
+      <c r="N23">
+        <v>541.0724789999999</v>
+      </c>
+      <c r="O23">
+        <v>0.9960408317692755</v>
+      </c>
+      <c r="P23">
+        <v>0.9960408317692757</v>
+      </c>
+      <c r="Q23">
+        <v>84.68403523742633</v>
+      </c>
+      <c r="R23">
+        <v>762.1563171368369</v>
+      </c>
+      <c r="S23">
+        <v>0.008298739945566819</v>
+      </c>
+      <c r="T23">
+        <v>0.00829873994556682</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.4695343333333333</v>
+      </c>
+      <c r="H24">
+        <v>1.408603</v>
+      </c>
+      <c r="I24">
+        <v>0.00833172665303861</v>
+      </c>
+      <c r="J24">
+        <v>0.00833172665303861</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>0.07065566666666667</v>
+      </c>
+      <c r="N24">
+        <v>0.211967</v>
+      </c>
+      <c r="O24">
+        <v>0.000390202413136666</v>
+      </c>
+      <c r="P24">
+        <v>0.0003902024131366661</v>
+      </c>
+      <c r="Q24">
+        <v>0.03317526134455556</v>
+      </c>
+      <c r="R24">
+        <v>0.2985773521010001</v>
+      </c>
+      <c r="S24">
+        <v>3.251059845610743E-06</v>
+      </c>
+      <c r="T24">
+        <v>3.251059845610744E-06</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.4695343333333333</v>
+      </c>
+      <c r="H25">
+        <v>1.408603</v>
+      </c>
+      <c r="I25">
+        <v>0.00833172665303861</v>
+      </c>
+      <c r="J25">
+        <v>0.00833172665303861</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M25">
+        <v>0.06577766666666666</v>
+      </c>
+      <c r="N25">
+        <v>0.197333</v>
+      </c>
+      <c r="O25">
+        <v>0.000363263209799156</v>
+      </c>
+      <c r="P25">
+        <v>0.0003632632097991561</v>
+      </c>
+      <c r="Q25">
+        <v>0.03088487286655555</v>
+      </c>
+      <c r="R25">
+        <v>0.277963855799</v>
+      </c>
+      <c r="S25">
+        <v>3.026609767151985E-06</v>
+      </c>
+      <c r="T25">
+        <v>3.026609767151986E-06</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.4695343333333333</v>
+      </c>
+      <c r="H26">
+        <v>1.408603</v>
+      </c>
+      <c r="I26">
+        <v>0.00833172665303861</v>
+      </c>
+      <c r="J26">
+        <v>0.00833172665303861</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M26">
+        <v>0.240756</v>
+      </c>
+      <c r="N26">
+        <v>0.722268</v>
+      </c>
+      <c r="O26">
+        <v>0.001329597137910116</v>
+      </c>
+      <c r="P26">
+        <v>0.001329597137910116</v>
+      </c>
+      <c r="Q26">
+        <v>0.113043207956</v>
+      </c>
+      <c r="R26">
+        <v>1.017388871604</v>
+      </c>
+      <c r="S26">
+        <v>1.107783991172956E-05</v>
+      </c>
+      <c r="T26">
+        <v>1.107783991172957E-05</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>2.116661</v>
+      </c>
+      <c r="H27">
+        <v>6.349983</v>
+      </c>
+      <c r="I27">
+        <v>0.03755942775036122</v>
+      </c>
+      <c r="J27">
+        <v>0.03755942775036122</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>0.3397146666666667</v>
+      </c>
+      <c r="N27">
+        <v>1.019144</v>
+      </c>
+      <c r="O27">
+        <v>0.001876105469878586</v>
+      </c>
+      <c r="P27">
+        <v>0.001876105469878587</v>
+      </c>
+      <c r="Q27">
+        <v>0.7190607860613334</v>
+      </c>
+      <c r="R27">
+        <v>6.471547074552</v>
+      </c>
+      <c r="S27">
+        <v>7.046544784796226E-05</v>
+      </c>
+      <c r="T27">
+        <v>7.046544784796228E-05</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>2.116661</v>
+      </c>
+      <c r="H28">
+        <v>6.349983</v>
+      </c>
+      <c r="I28">
+        <v>0.03755942775036122</v>
+      </c>
+      <c r="J28">
+        <v>0.03755942775036122</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>180.357493</v>
+      </c>
+      <c r="N28">
+        <v>541.0724789999999</v>
+      </c>
+      <c r="O28">
+        <v>0.9960408317692755</v>
+      </c>
+      <c r="P28">
+        <v>0.9960408317692757</v>
+      </c>
+      <c r="Q28">
+        <v>381.755671490873</v>
+      </c>
+      <c r="R28">
+        <v>3435.801043417856</v>
+      </c>
+      <c r="S28">
+        <v>0.0374107236572478</v>
+      </c>
+      <c r="T28">
+        <v>0.03741072365724781</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>2.116661</v>
+      </c>
+      <c r="H29">
+        <v>6.349983</v>
+      </c>
+      <c r="I29">
+        <v>0.03755942775036122</v>
+      </c>
+      <c r="J29">
+        <v>0.03755942775036122</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M29">
+        <v>0.07065566666666667</v>
+      </c>
+      <c r="N29">
+        <v>0.211967</v>
+      </c>
+      <c r="O29">
+        <v>0.000390202413136666</v>
+      </c>
+      <c r="P29">
+        <v>0.0003902024131366661</v>
+      </c>
+      <c r="Q29">
+        <v>0.1495540940623334</v>
+      </c>
+      <c r="R29">
+        <v>1.345986846561</v>
+      </c>
+      <c r="S29">
+        <v>1.465577934422321E-05</v>
+      </c>
+      <c r="T29">
+        <v>1.465577934422321E-05</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>2.116661</v>
+      </c>
+      <c r="H30">
+        <v>6.349983</v>
+      </c>
+      <c r="I30">
+        <v>0.03755942775036122</v>
+      </c>
+      <c r="J30">
+        <v>0.03755942775036122</v>
+      </c>
+      <c r="K30">
+        <v>2</v>
+      </c>
+      <c r="L30">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M30">
+        <v>0.06577766666666666</v>
+      </c>
+      <c r="N30">
+        <v>0.197333</v>
+      </c>
+      <c r="O30">
+        <v>0.000363263209799156</v>
+      </c>
+      <c r="P30">
+        <v>0.0003632632097991561</v>
+      </c>
+      <c r="Q30">
+        <v>0.1392290217043334</v>
+      </c>
+      <c r="R30">
+        <v>1.253061195339</v>
+      </c>
+      <c r="S30">
+        <v>1.364395828281571E-05</v>
+      </c>
+      <c r="T30">
+        <v>1.364395828281572E-05</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>2.116661</v>
+      </c>
+      <c r="H31">
+        <v>6.349983</v>
+      </c>
+      <c r="I31">
+        <v>0.03755942775036122</v>
+      </c>
+      <c r="J31">
+        <v>0.03755942775036122</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M31">
+        <v>0.240756</v>
+      </c>
+      <c r="N31">
+        <v>0.722268</v>
+      </c>
+      <c r="O31">
+        <v>0.001329597137910116</v>
+      </c>
+      <c r="P31">
+        <v>0.001329597137910116</v>
+      </c>
+      <c r="Q31">
+        <v>0.5095988357160001</v>
+      </c>
+      <c r="R31">
+        <v>4.586389521444</v>
+      </c>
+      <c r="S31">
+        <v>4.993890763842206E-05</v>
+      </c>
+      <c r="T31">
+        <v>4.993890763842206E-05</v>
       </c>
     </row>
   </sheetData>
